--- a/templates/API_MMS200MI_AddItmViaItmTyp.xlsx
+++ b/templates/API_MMS200MI_AddItmViaItmTyp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Infor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharrison\PycharmProjects\m3DataConversion\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05897671-28E1-4DE8-B02C-A9A0BB10FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F761BAF-2DEB-4113-8FBC-7D76EAC982F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20352" yWindow="8052" windowWidth="17280" windowHeight="10008" xr2:uid="{DB99E9A4-DEC6-488D-9D44-648B71C1E00F}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="13656" xr2:uid="{DB99E9A4-DEC6-488D-9D44-648B71C1E00F}"/>
   </bookViews>
   <sheets>
     <sheet name="API_MMS200MI_AddItmViaItmTyp" sheetId="2" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>MESSAGE</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>yes|Opt:T/U/B</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,19 +793,19 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
